--- a/Reliability_Row_data/static/src/modelfiles/WorkOvertime.xlsx
+++ b/Reliability_Row_data/static/src/modelfiles/WorkOvertime.xlsx
@@ -1,22 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A784EC-479E-424F-9055-11D1DB1C24E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8010"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="16800" windowHeight="9670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>計薪區間</t>
   </si>
@@ -54,108 +68,73 @@
     <t>國假加班</t>
   </si>
   <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>KF0MAQAA00</t>
+  </si>
+  <si>
+    <t>0614726</t>
+  </si>
+  <si>
+    <t>朱健</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>KF0MAQAAA0</t>
+  </si>
+  <si>
+    <t>C110679</t>
+  </si>
+  <si>
+    <t>李康康</t>
+  </si>
+  <si>
+    <t>C121101</t>
+  </si>
+  <si>
+    <t>袁海鋒</t>
+  </si>
+  <si>
+    <t>C121FJN</t>
+  </si>
+  <si>
+    <t>繆冬艷</t>
+  </si>
+  <si>
+    <t>20129301</t>
+  </si>
+  <si>
+    <t>王澤東</t>
+  </si>
+  <si>
+    <t>20449592</t>
+  </si>
+  <si>
+    <t>楊濤</t>
+  </si>
+  <si>
     <t>例假加班</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>CN30</t>
-  </si>
-  <si>
-    <t>KF0MAQAA00</t>
-  </si>
-  <si>
-    <t>DQA1五部</t>
-  </si>
-  <si>
-    <t>0614726</t>
-  </si>
-  <si>
-    <t>朱健</t>
-  </si>
-  <si>
-    <t>2006/11/22</t>
-  </si>
-  <si>
-    <t>2. 間接人員</t>
-  </si>
-  <si>
-    <t>C88</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>KF0MAQAAA0</t>
-  </si>
-  <si>
-    <t>DQA1五部一課</t>
-  </si>
-  <si>
-    <t>C110679</t>
-  </si>
-  <si>
-    <t>李康康</t>
-  </si>
-  <si>
-    <t>2011/02/10</t>
-  </si>
-  <si>
-    <t>A88</t>
-  </si>
-  <si>
-    <t>C121101</t>
-  </si>
-  <si>
-    <t>袁海鋒</t>
-  </si>
-  <si>
-    <t>2012/05/31</t>
-  </si>
-  <si>
-    <t>C121FJN</t>
-  </si>
-  <si>
-    <t>繆冬艷</t>
-  </si>
-  <si>
-    <t>2012/07/16</t>
-  </si>
-  <si>
-    <t>20129301</t>
-  </si>
-  <si>
-    <t>王澤東</t>
-  </si>
-  <si>
-    <t>2015/06/26</t>
-  </si>
-  <si>
-    <t>20449592</t>
-  </si>
-  <si>
-    <t>楊濤</t>
-  </si>
-  <si>
-    <t>2018/03/20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-404]General"/>
+    <numFmt numFmtId="176" formatCode="[$-404]General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -179,8 +158,39 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +206,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,17 +248,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -245,10 +267,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般_Sheet1" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="一般_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -256,12 +293,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -303,7 +343,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,9 +376,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,6 +428,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -546,332 +620,287 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N7" sqref="J2:N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <f t="shared" ref="I2:I7" si="0">SUM(F2:H2)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
     </row>
-    <row r="2" spans="1:14" ht="16.5">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5">
-        <f t="shared" ref="N2:N7" si="0">SUM(K2:M2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="16.5">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="16.5">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="16.5">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="4">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4">
         <v>35.5</v>
       </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
         <v>24.5</v>
       </c>
-      <c r="N5" s="5">
+      <c r="I5" s="5">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:14" ht="16.5">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="4">
+        <v>17</v>
+      </c>
+      <c r="F6" s="4">
         <v>16</v>
       </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
         <v>23.5</v>
       </c>
-      <c r="N6" s="5">
+      <c r="I6" s="5">
         <f t="shared" si="0"/>
         <v>39.5</v>
       </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:14" ht="16.5">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="4">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4">
         <v>15</v>
       </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
         <v>16</v>
       </c>
-      <c r="N7" s="5">
+      <c r="I7" s="5">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12"</formula1>
     </dataValidation>
   </dataValidations>
@@ -880,25 +909,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>